--- a/Excel/20170424剪力彎矩圖.xlsx
+++ b/Excel/20170424剪力彎矩圖.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11610"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="剪力彎矩圖" sheetId="2" r:id="rId1"/>
+    <sheet name="剪力彎矩圖1" sheetId="2" r:id="rId1"/>
+    <sheet name="剪力彎矩圖2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>V (KN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +26,18 @@
   </si>
   <si>
     <t>L (m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L (m) , 0&lt;L&lt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V (KN) , 0&lt;L&lt;2 L=2.5 , 2&lt;L&lt;4 L=-2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1 (kN．ｍ) , 0&lt;L&lt;2 M=2.5L , 2&lt;L&lt;4 M=10-2.5L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +130,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>剪力彎矩圖!$B$1</c:f>
+              <c:f>剪力彎矩圖1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -131,7 +144,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>剪力彎矩圖!$A$2:$A$182</c:f>
+              <c:f>剪力彎矩圖1!$A$2:$A$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -683,7 +696,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>剪力彎矩圖!$B$2:$B$182</c:f>
+              <c:f>剪力彎矩圖1!$B$2:$B$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -1240,7 +1253,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>剪力彎矩圖!$C$1</c:f>
+              <c:f>剪力彎矩圖1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1254,7 +1267,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>剪力彎矩圖!$A$2:$A$182</c:f>
+              <c:f>剪力彎矩圖1!$A$2:$A$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -1806,7 +1819,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>剪力彎矩圖!$C$2:$C$182</c:f>
+              <c:f>剪力彎矩圖1!$C$2:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -2366,11 +2379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103107584"/>
-        <c:axId val="103117568"/>
+        <c:axId val="99394688"/>
+        <c:axId val="99396224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103107584"/>
+        <c:axId val="99394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -2381,12 +2394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103117568"/>
+        <c:crossAx val="99396224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103117568"/>
+        <c:axId val="99396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -2399,7 +2412,1136 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103107584"/>
+        <c:crossAx val="99394688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>剪力彎矩圖2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V (KN) , 0&lt;L&lt;2 L=2.5 , 2&lt;L&lt;4 L=-2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>剪力彎矩圖2!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9499999999999975</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1499999999999968</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.2999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3499999999999961</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.4499999999999957</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.4999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5499999999999954</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5999999999999952</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.7499999999999947</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.7999999999999945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8999999999999941</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9999999999999938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>剪力彎矩圖2!$B$2:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>剪力彎矩圖2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1 (kN．ｍ) , 0&lt;L&lt;2 M=2.5L , 2&lt;L&lt;4 M=10-2.5L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>剪力彎矩圖2!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8499999999999979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9499999999999975</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1499999999999968</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.2999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3499999999999961</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3999999999999959</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.4499999999999957</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.4999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5499999999999954</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5999999999999952</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.7499999999999947</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.7999999999999945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8499999999999943</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8999999999999941</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9999999999999938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>剪力彎矩圖2!$C$2:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3750000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6250000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8750000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1250000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3750000000000013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6250000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8750000000000018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1250000000000018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3750000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6250000000000027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7500000000000027</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8750000000000027</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8749999999999982</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6249999999999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1250000000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8750000000000018</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6250000000000027</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.3750000000000036</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.2500000000000036</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1250000000000044</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8750000000000053</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.7500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6250000000000062</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.3750000000000071</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2500000000000071</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.125000000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0000000000000089</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8750000000000089</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7500000000000089</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6250000000000107</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3750000000000107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2500000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1250000000000107</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0000000000000124</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87500000000001243</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75000000000001243</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.62500000000001421</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.50000000000001421</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.37500000000001421</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25000000000001421</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12500000000001421</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5987211554602254E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="53960064"/>
+        <c:axId val="53958528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53960064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53958528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53958528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53960064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2435,6 +3577,41 @@
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2745,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5303,4 +6480,1169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C42" si="0">2.5*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="1">A3+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B42" si="2">B3</f>
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.3749999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.1250000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.3750000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.6250000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000003</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.8750000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000004</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000004</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000005</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000005</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3.3750000000000013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000006</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000006</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3.6250000000000018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.8750000000000018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000008</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.1250000000000018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000008</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4.2500000000000018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>1.7500000000000009</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4.3750000000000018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000009</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4.5000000000000027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>1.850000000000001</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>4.6250000000000027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>1.900000000000001</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>4.7500000000000027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1.9500000000000011</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4.8750000000000027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>2.0500000000000007</v>
+      </c>
+      <c r="B43">
+        <v>-2.5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C82" si="3">10-2.5*A43</f>
+        <v>4.8749999999999982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:B82" si="4">B43</f>
+        <v>-2.5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>4.7499999999999982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>4.6249999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>4.1250000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>2.4499999999999993</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>3.8750000000000018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>3.7500000000000018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>3.6250000000000027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999988</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>2.6499999999999986</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>3.3750000000000036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999984</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>2.7499999999999982</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>3.1250000000000044</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>2.799999999999998</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>2.8499999999999979</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>2.8750000000000053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999977</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>2.7500000000000053</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>2.9499999999999975</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>2.6250000000000062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999973</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000071</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>3.0499999999999972</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>2.3750000000000071</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>3.099999999999997</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>2.2500000000000071</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>3.1499999999999968</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>2.125000000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999966</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000089</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999964</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>1.8750000000000089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A82" si="5">A67+0.05</f>
+        <v>3.2999999999999963</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="5"/>
+        <v>3.3499999999999961</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>1.6250000000000107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="5"/>
+        <v>3.3999999999999959</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="5"/>
+        <v>3.4499999999999957</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>1.3750000000000107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="5"/>
+        <v>3.4999999999999956</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="5"/>
+        <v>3.5499999999999954</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>1.1250000000000107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999952</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>3.649999999999995</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>0.87500000000001243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>3.6999999999999948</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>0.75000000000001243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>3.7499999999999947</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>0.62500000000001421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>3.7999999999999945</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>0.50000000000001421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>3.8499999999999943</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>0.37500000000001421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>3.8999999999999941</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>0.25000000000001421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>3.949999999999994</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>0.12500000000001421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999938</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>1.5987211554602254E-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>